--- a/Configuration/TestData/TestData.xlsx
+++ b/Configuration/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81283DB4-5F51-4132-99A5-C07E77B22E18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A9583-F8BC-456B-9358-653110A66030}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Test</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>ApplyMemberShip_For_Enrichment</t>
+  </si>
+  <si>
+    <t>https://discoveryfcu.originsalphasite.net/MembershipX/Agreements</t>
+  </si>
+  <si>
+    <t>ApplyMemberShip</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,9 +444,18 @@
         <v>110000077</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{D7EA3D81-003A-4028-9B88-76A857E9A36A}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{34D77338-306C-4D30-BD65-59AAB16349CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
